--- a/test_data/sample/pics/CATALOG_pics.xlsx
+++ b/test_data/sample/pics/CATALOG_pics.xlsx
@@ -11,9 +11,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -420,7 +419,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Files"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,6 +441,9 @@
         <v>Relation:Contributor</v>
       </c>
       <c r="F1" t="str">
+        <v>RELATION:contentLocation</v>
+      </c>
+      <c r="G1" t="str">
         <v>*MISSING-FILE*</v>
       </c>
     </row>
@@ -461,13 +463,8 @@
       <c r="E2" t="str">
         <v>EPL1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>CATALOG_pics.xlsx</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1</v>
+      <c r="F2" t="str">
+        <v>Catalina Park</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/sample/pics/CATALOG_pics.xlsx
+++ b/test_data/sample/pics/CATALOG_pics.xlsx
@@ -438,7 +438,7 @@
         <v>RELATION:License</v>
       </c>
       <c r="E1" t="str">
-        <v>Relation:Contributor</v>
+        <v>RELATION:Contributor</v>
       </c>
       <c r="F1" t="str">
         <v>RELATION:contentLocation</v>

--- a/test_data/sample/pics/CATALOG_pics.xlsx
+++ b/test_data/sample/pics/CATALOG_pics.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Title</v>
+        <v>Name</v>
       </c>
       <c r="B2" t="str">
         <v>Pictures</v>

--- a/test_data/sample/pics/CATALOG_pics.xlsx
+++ b/test_data/sample/pics/CATALOG_pics.xlsx
@@ -466,6 +466,9 @@
       <c r="F2" t="str">
         <v>Catalina Park</v>
       </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
